--- a/HNELHD PGY1 and 2 Allocations Mapping 2024 Automated Algorithm.xlsx
+++ b/HNELHD PGY1 and 2 Allocations Mapping 2024 Automated Algorithm.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\GitHub\term-allocations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E728C9-63BC-41FC-8DF3-1D494167406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957BE874-B226-41D4-B649-D99496EC5A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{38A017DF-DBEE-4E28-B287-B117EED1A5CF}"/>
+    <workbookView xWindow="12030" yWindow="1155" windowWidth="28095" windowHeight="19035" xr2:uid="{38A017DF-DBEE-4E28-B287-B117EED1A5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="151">
   <si>
     <t>Master jobs list</t>
   </si>
@@ -110,9 +110,6 @@
     <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
   </si>
   <si>
-    <t>Surgery</t>
-  </si>
-  <si>
     <t>Emergency medicine</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
   </si>
   <si>
     <t>Rehabilitation</t>
-  </si>
-  <si>
-    <t>Medicine</t>
   </si>
   <si>
     <t>Cardiology</t>
@@ -581,25 +575,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -614,6 +594,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -746,34 +747,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0086EA"/>
         </patternFill>
       </fill>
@@ -802,6 +775,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -809,14 +789,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00CC99"/>
+          <bgColor rgb="FF3886CC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF3FAEE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -824,13 +804,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1158,11 +1131,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,34 +1157,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>2</v>
@@ -1219,16 +1193,16 @@
         <v>3</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>1</v>
@@ -1236,7 +1210,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1275,13 +1249,13 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P2" t="s">
         <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
         <v>5</v>
@@ -1328,19 +1302,19 @@
         <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1381,16 +1355,16 @@
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P4" t="s">
         <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
         <v>9</v>
@@ -1437,13 +1411,13 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P5" t="s">
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
         <v>5</v>
@@ -1451,7 +1425,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1490,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s">
         <v>16</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R6" t="s">
         <v>5</v>
@@ -1504,7 +1478,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1543,16 +1517,16 @@
         <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s">
         <v>16</v>
       </c>
       <c r="Q7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
         <v>5</v>
@@ -1560,7 +1534,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1599,13 +1573,13 @@
         <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P8" t="s">
         <v>16</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R8" t="s">
         <v>5</v>
@@ -1613,7 +1587,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1655,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R10" t="s">
         <v>9</v>
@@ -1764,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R11" t="s">
         <v>5</v>
@@ -1772,7 +1746,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1811,13 +1785,13 @@
         <v>6</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s">
         <v>16</v>
       </c>
       <c r="Q12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R12" t="s">
         <v>5</v>
@@ -1864,16 +1838,16 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s">
         <v>16</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R13" t="s">
         <v>5</v>
@@ -1881,7 +1855,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1920,13 +1894,13 @@
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P14" t="s">
         <v>16</v>
       </c>
       <c r="Q14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R14" t="s">
         <v>5</v>
@@ -1934,7 +1908,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1973,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P15" t="s">
         <v>16</v>
       </c>
       <c r="Q15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R15" t="s">
         <v>5</v>
@@ -1987,37 +1961,37 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -2026,13 +2000,13 @@
         <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P16" t="s">
         <v>16</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R16" t="s">
         <v>5</v>
@@ -2040,7 +2014,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2079,16 +2053,16 @@
         <v>11</v>
       </c>
       <c r="N17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P17" t="s">
         <v>16</v>
       </c>
       <c r="Q17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R17" t="s">
         <v>5</v>
@@ -2096,7 +2070,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2135,16 +2109,16 @@
         <v>11</v>
       </c>
       <c r="N18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P18" t="s">
         <v>16</v>
       </c>
       <c r="Q18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R18" t="s">
         <v>5</v>
@@ -2152,7 +2126,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2191,16 +2165,16 @@
         <v>13</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P19" t="s">
         <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R19" t="s">
         <v>5</v>
@@ -2208,7 +2182,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2247,24 +2221,24 @@
         <v>13</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P20" t="s">
         <v>16</v>
       </c>
       <c r="Q20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2303,13 +2277,13 @@
         <v>11</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
         <v>16</v>
       </c>
       <c r="Q21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R21" t="s">
         <v>9</v>
@@ -2317,7 +2291,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2353,16 +2327,16 @@
         <v>13</v>
       </c>
       <c r="N22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P22" t="s">
         <v>16</v>
       </c>
       <c r="Q22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R22" t="s">
         <v>5</v>
@@ -2370,7 +2344,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -2412,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="Q23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R23" t="s">
         <v>5</v>
@@ -2420,7 +2394,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2459,13 +2433,13 @@
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P24" t="s">
         <v>16</v>
       </c>
       <c r="Q24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R24" t="s">
         <v>5</v>
@@ -2473,7 +2447,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2512,21 +2486,21 @@
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P25" t="s">
         <v>16</v>
       </c>
       <c r="Q25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2565,24 +2539,24 @@
         <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P26" t="s">
         <v>16</v>
       </c>
       <c r="Q26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2621,24 +2595,24 @@
         <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P27" t="s">
         <v>16</v>
       </c>
       <c r="Q27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2674,13 +2648,13 @@
         <v>13</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P28" t="s">
         <v>16</v>
       </c>
       <c r="Q28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R28" t="s">
         <v>9</v>
@@ -2688,7 +2662,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2727,21 +2701,21 @@
         <v>13</v>
       </c>
       <c r="N29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P29" t="s">
         <v>16</v>
       </c>
       <c r="Q29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2777,13 +2751,13 @@
         <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P30" t="s">
         <v>16</v>
       </c>
       <c r="Q30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R30" t="s">
         <v>9</v>
@@ -2791,7 +2765,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2830,13 +2804,13 @@
         <v>13</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P31" t="s">
         <v>16</v>
       </c>
       <c r="Q31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R31" t="s">
         <v>5</v>
@@ -2844,7 +2818,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2880,13 +2854,13 @@
         <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s">
         <v>16</v>
       </c>
       <c r="Q32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R32" t="s">
         <v>5</v>
@@ -2894,7 +2868,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -2936,15 +2910,15 @@
         <v>16</v>
       </c>
       <c r="Q33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2977,16 +2951,16 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
         <v>33</v>
-      </c>
-      <c r="N34" t="s">
-        <v>34</v>
       </c>
       <c r="P34" t="s">
         <v>12</v>
       </c>
       <c r="Q34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R34" t="s">
         <v>9</v>
@@ -2994,7 +2968,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -3033,21 +3007,21 @@
         <v>11</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P35" t="s">
         <v>16</v>
       </c>
       <c r="Q35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3095,15 +3069,15 @@
         <v>16</v>
       </c>
       <c r="Q36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3142,13 +3116,13 @@
         <v>6</v>
       </c>
       <c r="N37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P37" t="s">
         <v>12</v>
       </c>
       <c r="Q37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R37" t="s">
         <v>9</v>
@@ -3156,7 +3130,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -3195,66 +3169,66 @@
         <v>7</v>
       </c>
       <c r="N38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P38" t="s">
         <v>16</v>
       </c>
       <c r="Q38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>33</v>
-      </c>
-      <c r="N39" t="s">
-        <v>39</v>
-      </c>
       <c r="O39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P39" t="s">
         <v>12</v>
       </c>
       <c r="Q39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R39" t="s">
         <v>9</v>
@@ -3262,7 +3236,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -3301,21 +3275,21 @@
         <v>7</v>
       </c>
       <c r="N40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P40" t="s">
         <v>16</v>
       </c>
       <c r="Q40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3354,16 +3328,16 @@
         <v>7</v>
       </c>
       <c r="N41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P41" t="s">
         <v>16</v>
       </c>
       <c r="Q41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R41" t="s">
         <v>9</v>
@@ -3371,7 +3345,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3410,16 +3384,16 @@
         <v>11</v>
       </c>
       <c r="N42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P42" t="s">
         <v>16</v>
       </c>
       <c r="Q42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R42" t="s">
         <v>5</v>
@@ -3427,7 +3401,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3466,16 +3440,16 @@
         <v>11</v>
       </c>
       <c r="N43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P43" t="s">
         <v>16</v>
       </c>
       <c r="Q43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R43" t="s">
         <v>5</v>
@@ -3483,7 +3457,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3522,16 +3496,16 @@
         <v>11</v>
       </c>
       <c r="N44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P44" t="s">
         <v>16</v>
       </c>
       <c r="Q44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R44" t="s">
         <v>5</v>
@@ -3539,7 +3513,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3578,24 +3552,24 @@
         <v>11</v>
       </c>
       <c r="N45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s">
         <v>16</v>
       </c>
       <c r="Q45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3634,16 +3608,16 @@
         <v>11</v>
       </c>
       <c r="N46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P46" t="s">
         <v>16</v>
       </c>
       <c r="Q46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R46" t="s">
         <v>9</v>
@@ -3651,7 +3625,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3690,16 +3664,16 @@
         <v>13</v>
       </c>
       <c r="N47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P47" t="s">
         <v>16</v>
       </c>
       <c r="Q47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R47" t="s">
         <v>5</v>
@@ -3707,7 +3681,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3746,16 +3720,16 @@
         <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P48" t="s">
         <v>16</v>
       </c>
       <c r="Q48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R48" t="s">
         <v>5</v>
@@ -3763,7 +3737,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3802,16 +3776,16 @@
         <v>13</v>
       </c>
       <c r="N49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P49" t="s">
         <v>16</v>
       </c>
       <c r="Q49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R49" t="s">
         <v>5</v>
@@ -3819,7 +3793,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3858,16 +3832,16 @@
         <v>7</v>
       </c>
       <c r="N50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P50" t="s">
         <v>16</v>
       </c>
       <c r="Q50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R50" t="s">
         <v>5</v>
@@ -3875,7 +3849,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3914,16 +3888,16 @@
         <v>7</v>
       </c>
       <c r="N51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P51" t="s">
         <v>8</v>
       </c>
       <c r="Q51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R51" t="s">
         <v>5</v>
@@ -3931,7 +3905,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3970,16 +3944,16 @@
         <v>7</v>
       </c>
       <c r="N52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P52" t="s">
         <v>16</v>
       </c>
       <c r="Q52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R52" t="s">
         <v>5</v>
@@ -3987,7 +3961,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4026,16 +4000,16 @@
         <v>6</v>
       </c>
       <c r="N53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P53" t="s">
         <v>16</v>
       </c>
       <c r="Q53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R53" t="s">
         <v>5</v>
@@ -4043,7 +4017,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4079,16 +4053,16 @@
         <v>13</v>
       </c>
       <c r="N54" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P54" t="s">
         <v>8</v>
       </c>
       <c r="Q54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R54" t="s">
         <v>5</v>
@@ -4096,7 +4070,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -4135,16 +4109,16 @@
         <v>13</v>
       </c>
       <c r="N55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P55" t="s">
         <v>16</v>
       </c>
       <c r="Q55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R55" t="s">
         <v>5</v>
@@ -4152,7 +4126,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4191,16 +4165,16 @@
         <v>13</v>
       </c>
       <c r="N56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P56" t="s">
         <v>16</v>
       </c>
       <c r="Q56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R56" t="s">
         <v>5</v>
@@ -4208,7 +4182,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -4250,7 +4224,7 @@
         <v>16</v>
       </c>
       <c r="Q57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R57" t="s">
         <v>5</v>
@@ -4258,7 +4232,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4297,16 +4271,16 @@
         <v>11</v>
       </c>
       <c r="N58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P58" t="s">
         <v>16</v>
       </c>
       <c r="Q58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R58" t="s">
         <v>5</v>
@@ -4314,7 +4288,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4353,13 +4327,13 @@
         <v>11</v>
       </c>
       <c r="N59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P59" t="s">
         <v>16</v>
       </c>
       <c r="Q59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R59" t="s">
         <v>5</v>
@@ -4367,7 +4341,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4406,16 +4380,16 @@
         <v>11</v>
       </c>
       <c r="N60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P60" t="s">
         <v>16</v>
       </c>
       <c r="Q60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R60" t="s">
         <v>5</v>
@@ -4423,7 +4397,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4462,13 +4436,13 @@
         <v>11</v>
       </c>
       <c r="N61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P61" t="s">
         <v>16</v>
       </c>
       <c r="Q61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R61" t="s">
         <v>5</v>
@@ -4476,7 +4450,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4515,13 +4489,13 @@
         <v>11</v>
       </c>
       <c r="N62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P62" t="s">
         <v>16</v>
       </c>
       <c r="Q62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R62" t="s">
         <v>5</v>
@@ -4529,7 +4503,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -4568,13 +4542,13 @@
         <v>11</v>
       </c>
       <c r="N63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P63" t="s">
         <v>16</v>
       </c>
       <c r="Q63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R63" t="s">
         <v>5</v>
@@ -4582,7 +4556,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4621,21 +4595,21 @@
         <v>11</v>
       </c>
       <c r="N64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P64" t="s">
         <v>16</v>
       </c>
       <c r="Q64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4674,21 +4648,21 @@
         <v>11</v>
       </c>
       <c r="N65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P65" t="s">
         <v>16</v>
       </c>
       <c r="Q65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4727,24 +4701,24 @@
         <v>11</v>
       </c>
       <c r="N66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P66" t="s">
         <v>16</v>
       </c>
       <c r="Q66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4783,16 +4757,16 @@
         <v>11</v>
       </c>
       <c r="N67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P67" t="s">
         <v>16</v>
       </c>
       <c r="Q67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R67" t="s">
         <v>9</v>
@@ -4800,7 +4774,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -4839,13 +4813,13 @@
         <v>11</v>
       </c>
       <c r="N68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P68" t="s">
         <v>16</v>
       </c>
       <c r="Q68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R68" t="s">
         <v>5</v>
@@ -4853,7 +4827,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4892,13 +4866,13 @@
         <v>11</v>
       </c>
       <c r="N69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P69" t="s">
         <v>16</v>
       </c>
       <c r="Q69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R69" t="s">
         <v>5</v>
@@ -4906,7 +4880,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -4948,7 +4922,7 @@
         <v>16</v>
       </c>
       <c r="Q70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R70" t="s">
         <v>5</v>
@@ -4956,7 +4930,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4995,13 +4969,13 @@
         <v>7</v>
       </c>
       <c r="N71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P71" t="s">
         <v>16</v>
       </c>
       <c r="Q71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R71" t="s">
         <v>5</v>
@@ -5009,7 +4983,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -5048,16 +5022,16 @@
         <v>13</v>
       </c>
       <c r="N72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P72" t="s">
         <v>16</v>
       </c>
       <c r="Q72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R72" t="s">
         <v>5</v>
@@ -5065,7 +5039,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -5104,13 +5078,13 @@
         <v>6</v>
       </c>
       <c r="N73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P73" t="s">
         <v>16</v>
       </c>
       <c r="Q73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R73" t="s">
         <v>5</v>
@@ -5118,7 +5092,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -5157,24 +5131,21 @@
         <v>13</v>
       </c>
       <c r="N74" t="s">
-        <v>114</v>
-      </c>
-      <c r="O74" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="P74" t="s">
         <v>16</v>
       </c>
       <c r="Q74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -5207,16 +5178,13 @@
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>114</v>
-      </c>
-      <c r="O75" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="P75" t="s">
         <v>16</v>
       </c>
       <c r="Q75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R75" t="s">
         <v>9</v>
@@ -5224,7 +5192,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -5263,16 +5231,13 @@
         <v>11</v>
       </c>
       <c r="N76" t="s">
-        <v>115</v>
-      </c>
-      <c r="O76" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="P76" t="s">
         <v>16</v>
       </c>
       <c r="Q76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R76" t="s">
         <v>5</v>
@@ -5280,7 +5245,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -5316,16 +5281,16 @@
         <v>13</v>
       </c>
       <c r="N77" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P77" t="s">
         <v>16</v>
       </c>
       <c r="Q77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R77" t="s">
         <v>5</v>
@@ -5333,96 +5298,97 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B86">
         <f>SUM(B2:B85)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <f t="shared" ref="C86:K86" si="0">SUM(C2:C85)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D86">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E86">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F86">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G86">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H86">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I86">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J86">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K86">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="N13:O13" name="Range1"/>
   </protectedRanges>
-  <autoFilter ref="A1:P77" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}"/>
-  <conditionalFormatting sqref="Q2:Q77 N25:P26 B25:K26 B1:P24 A1:A77 B27:P77 R1:R77">
-    <cfRule type="containsText" dxfId="37" priority="104" operator="containsText" text="C-Acute critical illness patient care">
+  <autoFilter ref="A1:R77" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="B1:P24 A1:A77 R1:R77 Q2:Q77 B25:K26 N25:P26 B27:P77">
+    <cfRule type="containsText" dxfId="34" priority="104" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25:P25 B25:K25 B2:P24 Q2:R25 A2:A77 B26:R77">
-    <cfRule type="containsText" dxfId="36" priority="103" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+  <conditionalFormatting sqref="B2:P24 B26:R77 Q2:R25 A2:A77">
+    <cfRule type="containsText" dxfId="33" priority="103" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="105" operator="containsText" text="D-Peri-operative / procedural patient care">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:P24 Q2:R25 A2:A77 B25:K25 N25:P25 B26:R77">
+    <cfRule type="containsText" dxfId="32" priority="106" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="106" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="31" priority="105" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:M1 N25:O26 Q2:Q77 L2:O24 L27:O77">
-    <cfRule type="containsText" dxfId="33" priority="108" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L1)))</formula>
+  <conditionalFormatting sqref="B25:P25">
+    <cfRule type="containsText" dxfId="30" priority="70" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="109" operator="containsText" text="B-Chronic illness patient care">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:M1 L2:O24 Q2:Q77 N25:O26 L27:O77">
+    <cfRule type="containsText" dxfId="29" priority="110" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="109" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="110" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M23">
-    <cfRule type="containsText" dxfId="30" priority="102" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="27" priority="102" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:M25">
-    <cfRule type="containsText" dxfId="29" priority="58" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="60" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="26" priority="64" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L25)))</formula>
     </cfRule>
@@ -5432,78 +5398,80 @@
     <cfRule type="containsText" dxfId="24" priority="66" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="70" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="23" priority="71" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="72" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="73" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="74" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="75" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="76" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="58" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="71" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="16" priority="59" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="72" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="15" priority="60" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="73" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="74" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="75" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="76" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L25)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:M25">
-    <cfRule type="containsText" dxfId="16" priority="45" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+  <conditionalFormatting sqref="L25:M26">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="46" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="47" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:M26">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L26)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="26" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L26)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="25" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="24" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L26)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="23" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="26" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L26)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:O24 Q2:Q77 N25:O26 L27:O77 L1:M1">
+    <cfRule type="containsText" dxfId="1" priority="108" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">

--- a/HNELHD PGY1 and 2 Allocations Mapping 2024 Automated Algorithm.xlsx
+++ b/HNELHD PGY1 and 2 Allocations Mapping 2024 Automated Algorithm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\GitHub\term-allocations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0110D1-B35A-4E25-8137-BB822EFEC494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E1B05-18F7-47F1-8E41-8B3EF0853D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="10800" xr2:uid="{38A017DF-DBEE-4E28-B287-B117EED1A5CF}"/>
+    <workbookView xWindow="3075" yWindow="1035" windowWidth="27285" windowHeight="19035" xr2:uid="{38A017DF-DBEE-4E28-B287-B117EED1A5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined sheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="PGY1 2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Combined sheet'!$A$1:$R$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Combined sheet'!$A$1:$R$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="151">
   <si>
     <t>PGY2 Only</t>
   </si>
@@ -316,9 +316,6 @@
     <t>JHH Surgery Relief (PGY1/2)</t>
   </si>
   <si>
-    <t>MBH Emergency (PGY1/2)</t>
-  </si>
-  <si>
     <t>MH Emergency (PGY1/2)</t>
   </si>
   <si>
@@ -494,12 +491,6 @@
   </si>
   <si>
     <t>PGY1 Term 5 Allocation</t>
-  </si>
-  <si>
-    <t>TRRH Emergency 08 (PGY2)</t>
-  </si>
-  <si>
-    <t>TRRH Surgery - Orthopaedics 03 (PGY2)</t>
   </si>
   <si>
     <t>Maximum number of allotted Doctors per year</t>
@@ -606,7 +597,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -614,6 +612,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -746,20 +751,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF66CCFF"/>
         </patternFill>
       </fill>
@@ -774,7 +765,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -782,6 +780,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -978,20 +983,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1550,11 +1541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,38 +1563,38 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1611,10 +1602,10 @@
         <v>2</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>3</v>
@@ -1667,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P2" t="s">
         <v>7</v>
@@ -1720,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" t="s">
         <v>7</v>
@@ -1773,10 +1764,10 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P4" t="s">
         <v>7</v>
@@ -1829,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5" t="s">
         <v>7</v>
@@ -1882,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
         <v>15</v>
@@ -1935,10 +1926,10 @@
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
@@ -1991,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s">
         <v>15</v>
@@ -2156,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s">
         <v>15</v>
@@ -2209,10 +2200,10 @@
         <v>6</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P12" t="s">
         <v>15</v>
@@ -2265,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P13" t="s">
         <v>15</v>
@@ -2318,7 +2309,7 @@
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
@@ -2332,7 +2323,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2371,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P15" t="s">
         <v>15</v>
@@ -2424,10 +2415,10 @@
         <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P16" t="s">
         <v>15</v>
@@ -2441,7 +2432,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2480,10 +2471,10 @@
         <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P17" t="s">
         <v>15</v>
@@ -2497,7 +2488,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2536,10 +2527,10 @@
         <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P18" t="s">
         <v>15</v>
@@ -2553,7 +2544,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2592,10 +2583,10 @@
         <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P19" t="s">
         <v>15</v>
@@ -2609,7 +2600,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2698,10 +2689,10 @@
         <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P21" t="s">
         <v>15</v>
@@ -2715,7 +2706,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2754,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P22" t="s">
         <v>15</v>
@@ -2866,7 +2857,7 @@
         <v>25</v>
       </c>
       <c r="O24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P24" t="s">
         <v>15</v>
@@ -2922,7 +2913,7 @@
         <v>25</v>
       </c>
       <c r="O25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P25" t="s">
         <v>15</v>
@@ -3281,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="N32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P32" t="s">
         <v>15</v>
@@ -3443,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="N35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P35" t="s">
         <v>15</v>
@@ -3549,7 +3540,7 @@
         <v>6</v>
       </c>
       <c r="N37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P37" t="s">
         <v>15</v>
@@ -3602,10 +3593,10 @@
         <v>6</v>
       </c>
       <c r="N38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P38" t="s">
         <v>15</v>
@@ -3658,10 +3649,10 @@
         <v>10</v>
       </c>
       <c r="N39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P39" t="s">
         <v>15</v>
@@ -3714,10 +3705,10 @@
         <v>10</v>
       </c>
       <c r="N40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P40" t="s">
         <v>15</v>
@@ -3770,10 +3761,10 @@
         <v>10</v>
       </c>
       <c r="N41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P41" t="s">
         <v>15</v>
@@ -3826,10 +3817,10 @@
         <v>10</v>
       </c>
       <c r="N42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P42" t="s">
         <v>15</v>
@@ -3882,10 +3873,10 @@
         <v>10</v>
       </c>
       <c r="N43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P43" t="s">
         <v>15</v>
@@ -3938,10 +3929,10 @@
         <v>12</v>
       </c>
       <c r="N44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P44" t="s">
         <v>15</v>
@@ -4050,10 +4041,10 @@
         <v>12</v>
       </c>
       <c r="N46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P46" t="s">
         <v>15</v>
@@ -4106,10 +4097,10 @@
         <v>6</v>
       </c>
       <c r="N47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P47" t="s">
         <v>15</v>
@@ -4162,10 +4153,10 @@
         <v>6</v>
       </c>
       <c r="N48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P48" t="s">
         <v>7</v>
@@ -4218,10 +4209,10 @@
         <v>6</v>
       </c>
       <c r="N49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P49" t="s">
         <v>15</v>
@@ -4274,10 +4265,10 @@
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P50" t="s">
         <v>15</v>
@@ -4327,10 +4318,10 @@
         <v>12</v>
       </c>
       <c r="N51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P51" t="s">
         <v>7</v>
@@ -4383,10 +4374,10 @@
         <v>12</v>
       </c>
       <c r="N52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P52" t="s">
         <v>15</v>
@@ -4439,10 +4430,10 @@
         <v>12</v>
       </c>
       <c r="N53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P53" t="s">
         <v>15</v>
@@ -4551,7 +4542,7 @@
         <v>10</v>
       </c>
       <c r="N55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P55" t="s">
         <v>15</v>
@@ -4604,10 +4595,10 @@
         <v>10</v>
       </c>
       <c r="N56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P56" t="s">
         <v>15</v>
@@ -4660,7 +4651,7 @@
         <v>10</v>
       </c>
       <c r="N57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P57" t="s">
         <v>15</v>
@@ -4713,7 +4704,7 @@
         <v>10</v>
       </c>
       <c r="N58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P58" t="s">
         <v>15</v>
@@ -4766,7 +4757,7 @@
         <v>10</v>
       </c>
       <c r="N59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P59" t="s">
         <v>15</v>
@@ -4819,7 +4810,7 @@
         <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P60" t="s">
         <v>15</v>
@@ -4872,7 +4863,7 @@
         <v>10</v>
       </c>
       <c r="N61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P61" t="s">
         <v>15</v>
@@ -4925,10 +4916,10 @@
         <v>10</v>
       </c>
       <c r="N62" t="s">
+        <v>126</v>
+      </c>
+      <c r="O62" t="s">
         <v>127</v>
-      </c>
-      <c r="O62" t="s">
-        <v>128</v>
       </c>
       <c r="P62" t="s">
         <v>15</v>
@@ -4981,10 +4972,10 @@
         <v>10</v>
       </c>
       <c r="N63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P63" t="s">
         <v>15</v>
@@ -5037,7 +5028,7 @@
         <v>10</v>
       </c>
       <c r="N64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P64" t="s">
         <v>15</v>
@@ -5090,7 +5081,7 @@
         <v>10</v>
       </c>
       <c r="N65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P65" t="s">
         <v>15</v>
@@ -5104,52 +5095,52 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="N66" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="P66" t="s">
         <v>15</v>
       </c>
       <c r="Q66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R66" t="s">
         <v>4</v>
@@ -5157,46 +5148,46 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s">
         <v>6</v>
       </c>
       <c r="M67" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N67" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="P67" t="s">
         <v>15</v>
@@ -5210,46 +5201,46 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>3</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M68" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
         <v>12</v>
       </c>
       <c r="N68" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="O68" t="s">
+        <v>104</v>
       </c>
       <c r="P68" t="s">
         <v>15</v>
@@ -5263,13 +5254,13 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5290,10 +5281,10 @@
         <v>1</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="s">
         <v>6</v>
@@ -5302,7 +5293,7 @@
         <v>10</v>
       </c>
       <c r="N69" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="P69" t="s">
         <v>15</v>
@@ -5311,12 +5302,12 @@
         <v>52</v>
       </c>
       <c r="R69" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -5328,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5340,22 +5331,19 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="O70" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="P70" t="s">
         <v>15</v>
@@ -5364,24 +5352,24 @@
         <v>52</v>
       </c>
       <c r="R70" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5393,22 +5381,19 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>6</v>
-      </c>
-      <c r="M71" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
       </c>
       <c r="P71" t="s">
         <v>15</v>
@@ -5422,143 +5407,137 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>2</v>
-      </c>
-      <c r="L72" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="O72" t="s">
+        <v>16</v>
       </c>
       <c r="P72" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R72" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
-        <v>10</v>
-      </c>
-      <c r="M73" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="O73" t="s">
+        <v>16</v>
       </c>
       <c r="P73" t="s">
         <v>15</v>
       </c>
       <c r="Q73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R73" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N74" t="s">
         <v>16</v>
@@ -5573,42 +5552,42 @@
         <v>52</v>
       </c>
       <c r="R74" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75" t="s">
         <v>16</v>
@@ -5623,12 +5602,12 @@
         <v>52</v>
       </c>
       <c r="R75" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -5637,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -5649,10 +5628,10 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>2</v>
@@ -5667,7 +5646,7 @@
         <v>16</v>
       </c>
       <c r="P76" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q76" t="s">
         <v>52</v>
@@ -5676,262 +5655,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
-      <c r="G77">
-        <v>3</v>
-      </c>
-      <c r="H77">
-        <v>4</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <v>4</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="N77" t="s">
-        <v>16</v>
-      </c>
-      <c r="O77" t="s">
-        <v>16</v>
-      </c>
-      <c r="P77" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>52</v>
-      </c>
-      <c r="R77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>17</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78">
-        <v>17</v>
-      </c>
-      <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="G78">
-        <v>17</v>
-      </c>
-      <c r="H78">
-        <v>10</v>
-      </c>
-      <c r="I78">
-        <v>17</v>
-      </c>
-      <c r="J78">
-        <v>10</v>
-      </c>
-      <c r="K78">
-        <v>17</v>
-      </c>
-      <c r="N78" t="s">
-        <v>16</v>
-      </c>
-      <c r="O78" t="s">
-        <v>16</v>
-      </c>
-      <c r="P78" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>52</v>
-      </c>
-      <c r="R78" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
-      </c>
-      <c r="I79">
-        <v>3</v>
-      </c>
-      <c r="J79">
-        <v>3</v>
-      </c>
-      <c r="K79">
-        <v>3</v>
-      </c>
-      <c r="N79" t="s">
-        <v>16</v>
-      </c>
-      <c r="O79" t="s">
-        <v>16</v>
-      </c>
-      <c r="P79" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>52</v>
-      </c>
-      <c r="R79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>2</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="N80" t="s">
-        <v>16</v>
-      </c>
-      <c r="O80" t="s">
-        <v>16</v>
-      </c>
-      <c r="P80" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>52</v>
-      </c>
-      <c r="R80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="7">
-        <f>SUM(B2:B82)</f>
-        <v>85</v>
-      </c>
-      <c r="C83" s="7">
-        <f t="shared" ref="C83:K83" si="0">SUM(C2:C82)</f>
-        <v>126</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="A79" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="7">
+        <f>SUM(B2:B78)</f>
+        <v>84</v>
+      </c>
+      <c r="C79" s="7">
+        <f t="shared" ref="C79:K79" si="0">SUM(C2:C78)</f>
+        <v>115</v>
+      </c>
+      <c r="D79" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E83" s="7">
+        <v>88</v>
+      </c>
+      <c r="E79" s="7">
         <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="F83" s="7">
+        <v>112</v>
+      </c>
+      <c r="F79" s="7">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="G79" s="7">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H79" s="7">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="G83" s="7">
+      <c r="I79" s="7">
         <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="H83" s="7">
+        <v>113</v>
+      </c>
+      <c r="J79" s="7">
         <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="I83" s="7">
+        <v>86</v>
+      </c>
+      <c r="K79" s="7">
         <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="J83" s="7">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="K83" s="7">
-        <f t="shared" si="0"/>
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="N12:O12" name="Range1"/>
   </protectedRanges>
-  <autoFilter ref="A1:R81" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}"/>
-  <conditionalFormatting sqref="A1:P8 R1:R8 Q2:Q8 A9:R21 B22:P22 A22:A30 Q22:R30 B23:K24 N23:P24 B25:P30 A31:R80">
+  <autoFilter ref="A1:R77" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}"/>
+  <conditionalFormatting sqref="A1:P8 R1:R8 Q2:Q8 A9:R21 B22:P22 A22:A30 Q22:R30 B23:K24 N23:P24 B25:P30 A31:R76">
     <cfRule type="containsText" dxfId="91" priority="108" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:R21 B22:P22 Q22:R23 A22:A30 B23:K23 N23:P23 B24:R30 A31:R80">
+  <conditionalFormatting sqref="A2:R21 B22:P22 Q22:R23 A22:A30 B23:K23 N23:P23 B24:R30 A31:R76">
     <cfRule type="containsText" dxfId="90" priority="109" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
@@ -5939,12 +5718,12 @@
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:R80">
+  <conditionalFormatting sqref="A2:R76">
     <cfRule type="containsText" dxfId="88" priority="74" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:M1 L2:O22 Q2:Q80 N23:O24 L25:O80">
+  <conditionalFormatting sqref="L1:M1 L2:O22 N23:O24 Q2:Q76 L25:O76">
     <cfRule type="containsText" dxfId="87" priority="113" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L1)))</formula>
     </cfRule>
@@ -6033,12 +5812,12 @@
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L77:M77">
+  <conditionalFormatting sqref="L73:M73">
     <cfRule type="containsText" dxfId="60" priority="106" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:O22 Q2:Q80 N23:O24 L25:O80 L1:M1">
+  <conditionalFormatting sqref="L2:O22 N23:O24 L1:M1 Q2:Q76 L25:O76">
     <cfRule type="containsText" dxfId="59" priority="112" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L1)))</formula>
     </cfRule>
@@ -6050,10 +5829,10 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L23:M24" xr:uid="{8E10B5C8-533D-4E35-BE0C-7A883C1BCAC0}">
-      <formula1>$A$82:$A$86</formula1>
+      <formula1>$A$78:$A$82</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M22 L25:M80" xr:uid="{DAB3E8D8-C772-4B12-9F90-671A6816994C}">
-      <formula1>$A$77:$A$80</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M22 L25:M76" xr:uid="{DAB3E8D8-C772-4B12-9F90-671A6816994C}">
+      <formula1>$A$73:$A$76</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6062,10 +5841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBCFC34-CF59-4F52-99F4-6B4FCCBC3C97}">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6084,23 +5863,23 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
@@ -6108,10 +5887,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -6123,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6152,7 +5931,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -6164,7 +5943,7 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <f xml:space="preserve"> SUM(B2:F2)</f>
+        <f t="shared" ref="N2:N33" si="0" xml:space="preserve"> SUM(B2:F2)</f>
         <v>35</v>
       </c>
     </row>
@@ -6194,7 +5973,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
@@ -6206,7 +5985,7 @@
         <v>4</v>
       </c>
       <c r="N3">
-        <f xml:space="preserve"> SUM(B3:F3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -6236,10 +6015,10 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
@@ -6251,7 +6030,7 @@
         <v>8</v>
       </c>
       <c r="N4">
-        <f xml:space="preserve"> SUM(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -6281,7 +6060,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
@@ -6293,7 +6072,7 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <f xml:space="preserve"> SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -6323,7 +6102,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -6335,7 +6114,7 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <f xml:space="preserve"> SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -6365,10 +6144,10 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -6380,7 +6159,7 @@
         <v>4</v>
       </c>
       <c r="N7">
-        <f xml:space="preserve"> SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -6410,7 +6189,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -6422,7 +6201,7 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <f xml:space="preserve"> SUM(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -6467,7 +6246,7 @@
         <v>8</v>
       </c>
       <c r="N9">
-        <f xml:space="preserve"> SUM(B9:F9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -6512,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <f xml:space="preserve"> SUM(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -6542,7 +6321,7 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -6554,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <f xml:space="preserve"> SUM(B11:F11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -6584,10 +6363,10 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
@@ -6599,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <f xml:space="preserve"> SUM(B12:F12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -6629,7 +6408,7 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
@@ -6641,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <f xml:space="preserve"> SUM(B13:F13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -6671,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
         <v>15</v>
@@ -6683,13 +6462,13 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <f xml:space="preserve"> SUM(B14:F14)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6713,7 +6492,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s">
         <v>15</v>
@@ -6725,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <f xml:space="preserve"> SUM(B15:F15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -6755,10 +6534,10 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
@@ -6770,13 +6549,13 @@
         <v>4</v>
       </c>
       <c r="N16">
-        <f xml:space="preserve"> SUM(B16:F16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6800,10 +6579,10 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
@@ -6815,13 +6594,13 @@
         <v>4</v>
       </c>
       <c r="N17">
-        <f xml:space="preserve"> SUM(B17:F17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6845,10 +6624,10 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
@@ -6860,13 +6639,13 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <f xml:space="preserve"> SUM(B18:F18)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6890,10 +6669,10 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s">
         <v>15</v>
@@ -6905,13 +6684,13 @@
         <v>4</v>
       </c>
       <c r="N19">
-        <f xml:space="preserve"> SUM(B19:F19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6947,7 +6726,7 @@
         <v>8</v>
       </c>
       <c r="N20">
-        <f xml:space="preserve"> SUM(B20:F20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -6974,10 +6753,10 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s">
         <v>15</v>
@@ -6989,13 +6768,13 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <f xml:space="preserve"> SUM(B21:F21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7019,7 +6798,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
         <v>15</v>
@@ -7031,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="N22">
-        <f xml:space="preserve"> SUM(B22:F22)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7076,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="N23">
-        <f xml:space="preserve"> SUM(B23:F23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7109,7 +6888,7 @@
         <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
@@ -7121,7 +6900,7 @@
         <v>8</v>
       </c>
       <c r="N24">
-        <f xml:space="preserve"> SUM(B24:F24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7154,7 +6933,7 @@
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
@@ -7166,7 +6945,7 @@
         <v>8</v>
       </c>
       <c r="N25">
-        <f xml:space="preserve"> SUM(B25:F25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7205,7 +6984,7 @@
         <v>8</v>
       </c>
       <c r="N26">
-        <f xml:space="preserve"> SUM(B26:F26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7247,7 +7026,7 @@
         <v>4</v>
       </c>
       <c r="N27">
-        <f xml:space="preserve"> SUM(B27:F27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7286,7 +7065,7 @@
         <v>8</v>
       </c>
       <c r="N28">
-        <f xml:space="preserve"> SUM(B28:F28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7328,7 +7107,7 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <f xml:space="preserve"> SUM(B29:F29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7367,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="N30">
-        <f xml:space="preserve"> SUM(B30:F30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7406,7 +7185,7 @@
         <v>8</v>
       </c>
       <c r="N31">
-        <f xml:space="preserve"> SUM(B31:F31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7436,7 +7215,7 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s">
         <v>15</v>
@@ -7448,7 +7227,7 @@
         <v>4</v>
       </c>
       <c r="N32">
-        <f xml:space="preserve"> SUM(B32:F32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7493,7 +7272,7 @@
         <v>8</v>
       </c>
       <c r="N33">
-        <f xml:space="preserve"> SUM(B33:F33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7535,7 +7314,7 @@
         <v>8</v>
       </c>
       <c r="N34">
-        <f xml:space="preserve"> SUM(B34:F34)</f>
+        <f t="shared" ref="N34:N65" si="1" xml:space="preserve"> SUM(B34:F34)</f>
         <v>5</v>
       </c>
     </row>
@@ -7565,7 +7344,7 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
@@ -7577,7 +7356,7 @@
         <v>4</v>
       </c>
       <c r="N35">
-        <f xml:space="preserve"> SUM(B35:F35)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -7619,7 +7398,7 @@
         <v>8</v>
       </c>
       <c r="N36">
-        <f xml:space="preserve"> SUM(B36:F36)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -7649,7 +7428,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s">
         <v>15</v>
@@ -7661,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="N37">
-        <f xml:space="preserve"> SUM(B37:F37)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -7691,10 +7470,10 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s">
         <v>15</v>
@@ -7706,7 +7485,7 @@
         <v>8</v>
       </c>
       <c r="N38">
-        <f xml:space="preserve"> SUM(B38:F38)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -7736,10 +7515,10 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K39" t="s">
         <v>15</v>
@@ -7751,7 +7530,7 @@
         <v>4</v>
       </c>
       <c r="N39">
-        <f xml:space="preserve"> SUM(B39:F39)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -7781,10 +7560,10 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K40" t="s">
         <v>15</v>
@@ -7796,7 +7575,7 @@
         <v>4</v>
       </c>
       <c r="N40">
-        <f xml:space="preserve"> SUM(B40:F40)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -7826,10 +7605,10 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s">
         <v>15</v>
@@ -7841,7 +7620,7 @@
         <v>4</v>
       </c>
       <c r="N41">
-        <f xml:space="preserve"> SUM(B41:F41)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -7871,10 +7650,10 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" t="s">
         <v>15</v>
@@ -7886,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="N42">
-        <f xml:space="preserve"> SUM(B42:F42)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -7916,10 +7695,10 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s">
         <v>15</v>
@@ -7931,7 +7710,7 @@
         <v>8</v>
       </c>
       <c r="N43">
-        <f xml:space="preserve"> SUM(B43:F43)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -7961,10 +7740,10 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s">
         <v>15</v>
@@ -7976,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> SUM(B44:F44)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -8021,7 +7800,7 @@
         <v>4</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> SUM(B45:F45)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -8051,10 +7830,10 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K46" t="s">
         <v>15</v>
@@ -8066,7 +7845,7 @@
         <v>4</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> SUM(B46:F46)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -8096,10 +7875,10 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K47" t="s">
         <v>15</v>
@@ -8111,7 +7890,7 @@
         <v>4</v>
       </c>
       <c r="N47">
-        <f xml:space="preserve"> SUM(B47:F47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -8141,10 +7920,10 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s">
         <v>7</v>
@@ -8156,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="N48">
-        <f xml:space="preserve"> SUM(B48:F48)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -8186,10 +7965,10 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K49" t="s">
         <v>15</v>
@@ -8201,7 +7980,7 @@
         <v>4</v>
       </c>
       <c r="N49">
-        <f xml:space="preserve"> SUM(B49:F49)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8231,10 +8010,10 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K50" t="s">
         <v>15</v>
@@ -8246,7 +8025,7 @@
         <v>4</v>
       </c>
       <c r="N50">
-        <f xml:space="preserve"> SUM(B50:F50)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8273,10 +8052,10 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s">
         <v>7</v>
@@ -8288,7 +8067,7 @@
         <v>4</v>
       </c>
       <c r="N51">
-        <f xml:space="preserve"> SUM(B51:F51)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8318,10 +8097,10 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s">
         <v>15</v>
@@ -8333,7 +8112,7 @@
         <v>4</v>
       </c>
       <c r="N52">
-        <f xml:space="preserve"> SUM(B52:F52)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -8363,10 +8142,10 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K53" t="s">
         <v>15</v>
@@ -8378,7 +8157,7 @@
         <v>4</v>
       </c>
       <c r="N53">
-        <f xml:space="preserve"> SUM(B53:F53)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -8423,7 +8202,7 @@
         <v>4</v>
       </c>
       <c r="N54">
-        <f xml:space="preserve"> SUM(B54:F54)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -8453,7 +8232,7 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s">
         <v>15</v>
@@ -8465,7 +8244,7 @@
         <v>4</v>
       </c>
       <c r="N55">
-        <f xml:space="preserve"> SUM(B55:F55)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8495,10 +8274,10 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K56" t="s">
         <v>15</v>
@@ -8510,7 +8289,7 @@
         <v>4</v>
       </c>
       <c r="N56">
-        <f xml:space="preserve"> SUM(B56:F56)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -8540,7 +8319,7 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K57" t="s">
         <v>15</v>
@@ -8552,7 +8331,7 @@
         <v>4</v>
       </c>
       <c r="N57">
-        <f xml:space="preserve"> SUM(B57:F57)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -8582,7 +8361,7 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s">
         <v>15</v>
@@ -8594,7 +8373,7 @@
         <v>4</v>
       </c>
       <c r="N58">
-        <f xml:space="preserve"> SUM(B58:F58)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -8624,7 +8403,7 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K59" t="s">
         <v>15</v>
@@ -8636,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="N59">
-        <f xml:space="preserve"> SUM(B59:F59)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -8666,7 +8445,7 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K60" t="s">
         <v>15</v>
@@ -8678,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="N60">
-        <f xml:space="preserve"> SUM(B60:F60)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -8708,7 +8487,7 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K61" t="s">
         <v>15</v>
@@ -8720,7 +8499,7 @@
         <v>8</v>
       </c>
       <c r="N61">
-        <f xml:space="preserve"> SUM(B61:F61)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8750,10 +8529,10 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
+        <v>126</v>
+      </c>
+      <c r="J62" t="s">
         <v>127</v>
-      </c>
-      <c r="J62" t="s">
-        <v>128</v>
       </c>
       <c r="K62" t="s">
         <v>15</v>
@@ -8765,7 +8544,7 @@
         <v>8</v>
       </c>
       <c r="N62">
-        <f xml:space="preserve"> SUM(B62:F62)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8795,10 +8574,10 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K63" t="s">
         <v>15</v>
@@ -8810,7 +8589,7 @@
         <v>8</v>
       </c>
       <c r="N63">
-        <f xml:space="preserve"> SUM(B63:F63)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8840,7 +8619,7 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K64" t="s">
         <v>15</v>
@@ -8852,7 +8631,7 @@
         <v>4</v>
       </c>
       <c r="N64">
-        <f xml:space="preserve"> SUM(B64:F64)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8882,7 +8661,7 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K65" t="s">
         <v>15</v>
@@ -8894,7 +8673,7 @@
         <v>4</v>
       </c>
       <c r="N65">
-        <f xml:space="preserve"> SUM(B65:F65)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -8903,41 +8682,41 @@
         <v>91</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
         <v>5</v>
       </c>
-      <c r="E66">
-        <v>5</v>
-      </c>
-      <c r="F66">
-        <v>5</v>
-      </c>
-      <c r="G66" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" t="s">
-        <v>6</v>
-      </c>
       <c r="I66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K66" t="s">
         <v>15</v>
       </c>
       <c r="L66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M66" t="s">
         <v>4</v>
       </c>
       <c r="N66">
-        <f xml:space="preserve"> SUM(B66:F66)</f>
-        <v>27</v>
+        <f t="shared" ref="N66:N77" si="2" xml:space="preserve"> SUM(B66:F66)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -8948,25 +8727,25 @@
         <v>2</v>
       </c>
       <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
         <v>3</v>
       </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
       <c r="F67">
-        <v>4</v>
-      </c>
-      <c r="G67" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s">
         <v>15</v>
@@ -8978,34 +8757,34 @@
         <v>4</v>
       </c>
       <c r="N67">
-        <f xml:space="preserve"> SUM(B67:F67)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
       </c>
       <c r="I68" t="s">
         <v>97</v>
@@ -9020,19 +8799,19 @@
         <v>4</v>
       </c>
       <c r="N68">
-        <f xml:space="preserve"> SUM(B68:F68)</f>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -9044,13 +8823,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="J69" t="s">
+        <v>104</v>
       </c>
       <c r="K69" t="s">
         <v>15</v>
@@ -9062,19 +8841,19 @@
         <v>4</v>
       </c>
       <c r="N69">
-        <f xml:space="preserve"> SUM(B69:F69)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -9083,16 +8862,16 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>105</v>
-      </c>
-      <c r="J70" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K70" t="s">
         <v>15</v>
@@ -9101,11 +8880,11 @@
         <v>52</v>
       </c>
       <c r="M70" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N70">
-        <f xml:space="preserve"> SUM(B70:F70)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -9122,19 +8901,16 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" t="s">
-        <v>10</v>
-      </c>
       <c r="I71" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
       </c>
       <c r="K71" t="s">
         <v>15</v>
@@ -9146,22 +8922,22 @@
         <v>8</v>
       </c>
       <c r="N71">
-        <f xml:space="preserve"> SUM(B71:F71)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -9169,89 +8945,83 @@
       <c r="F72">
         <v>2</v>
       </c>
-      <c r="G72" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" t="s">
-        <v>6</v>
-      </c>
       <c r="I72" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
       </c>
       <c r="K72" t="s">
         <v>15</v>
       </c>
       <c r="L72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M72" t="s">
         <v>8</v>
       </c>
       <c r="N72">
-        <f xml:space="preserve"> SUM(B72:F72)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="G73" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" t="s">
-        <v>6</v>
-      </c>
       <c r="I73" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M73" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <f xml:space="preserve"> SUM(B73:F73)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74" t="s">
         <v>16</v>
@@ -9266,31 +9036,31 @@
         <v>52</v>
       </c>
       <c r="M74" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <f xml:space="preserve"> SUM(B74:F74)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s">
         <v>16</v>
@@ -9305,31 +9075,31 @@
         <v>52</v>
       </c>
       <c r="M75" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <f xml:space="preserve"> SUM(B75:F75)</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76" t="s">
         <v>16</v>
@@ -9338,7 +9108,7 @@
         <v>16</v>
       </c>
       <c r="K76" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L76" t="s">
         <v>52</v>
@@ -9347,28 +9117,28 @@
         <v>4</v>
       </c>
       <c r="N76">
-        <f xml:space="preserve"> SUM(B76:F76)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
         <v>16</v>
@@ -9386,124 +9156,7 @@
         <v>4</v>
       </c>
       <c r="N77">
-        <f xml:space="preserve"> SUM(B77:F77)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>17</v>
-      </c>
-      <c r="C78">
-        <v>17</v>
-      </c>
-      <c r="D78">
-        <v>17</v>
-      </c>
-      <c r="E78">
-        <v>17</v>
-      </c>
-      <c r="F78">
-        <v>17</v>
-      </c>
-      <c r="I78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" t="s">
-        <v>15</v>
-      </c>
-      <c r="L78" t="s">
-        <v>52</v>
-      </c>
-      <c r="M78" t="s">
-        <v>4</v>
-      </c>
-      <c r="N78">
-        <f xml:space="preserve"> SUM(B78:F78)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-      <c r="I79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" t="s">
-        <v>15</v>
-      </c>
-      <c r="L79" t="s">
-        <v>52</v>
-      </c>
-      <c r="M79" t="s">
-        <v>4</v>
-      </c>
-      <c r="N79">
-        <f xml:space="preserve"> SUM(B79:F79)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" t="s">
-        <v>15</v>
-      </c>
-      <c r="L80" t="s">
-        <v>52</v>
-      </c>
-      <c r="M80" t="s">
-        <v>4</v>
-      </c>
-      <c r="N80">
-        <f xml:space="preserve"> SUM(B80:F80)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -9511,121 +9164,123 @@
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="I12:J12" name="Range1_3"/>
   </protectedRanges>
-  <conditionalFormatting sqref="M1:M8 L2:L8 L22:M30 I23:K24 G1:K8 G9:M21 G22:K22 A1:F80 G25:K30 N1:N30 G31:N80">
-    <cfRule type="containsText" dxfId="57" priority="29" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="A1:F77 G31:N77">
+    <cfRule type="containsText" dxfId="57" priority="28" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:M23 I23:K23 G2:M21 G22:K22 N2:N23 A2:F80 G24:N80">
-    <cfRule type="containsText" dxfId="56" priority="30" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="31" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:N80">
-    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+  <conditionalFormatting sqref="A2:N77">
+    <cfRule type="containsText" dxfId="56" priority="21" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1 G2:J22 L2:L80 I23:J24 G25:J80">
-    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="B-Chronic illness patient care">
+  <conditionalFormatting sqref="G1:H1 G2:J22 L2:L77 I23:J24 G25:J77">
+    <cfRule type="containsText" dxfId="55" priority="33" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="34" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="54" priority="34" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="52" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="48" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H24">
-    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77:H77">
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G77)))</formula>
+  <conditionalFormatting sqref="G2:J22 L2:L77 I23:J24 G25:J77 G1:H1">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J22 L2:L80 I23:J24 G25:J80 G1:H1">
-    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="G1:K8 M1:M8 N1:N30 L2:L8 G9:M21 G22:K22 L22:M30 I23:K24 G25:K30">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:M21 N2:N23 A2:F77 G22:K22 L22:M23 I23:K23 G24:N77">
+    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:M21 N2:N23 G22:K22 L22:M23 I23:K23 G24:N77 A2:F77">
+    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
@@ -9634,11 +9289,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H22 G25:H80" xr:uid="{4124FF19-35E5-4CEA-BAF3-C4A2C7337A91}">
-      <formula1>$A$77:$A$80</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H22 G25:H77" xr:uid="{4124FF19-35E5-4CEA-BAF3-C4A2C7337A91}">
+      <formula1>$A$74:$A$77</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23:H24" xr:uid="{0283F889-838C-4AD7-8B45-EAD8504B0A12}">
-      <formula1>$A$81:$A$82</formula1>
+      <formula1>$A$78:$A$79</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9647,10 +9302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533CA44-7BCF-4D40-AC1C-780ACFD916E3}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9669,23 +9324,23 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
@@ -9693,10 +9348,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -9708,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9737,7 +9392,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -9749,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <f xml:space="preserve"> SUM(B2:F2)</f>
+        <f t="shared" ref="N2:N33" si="0" xml:space="preserve"> SUM(B2:F2)</f>
         <v>2</v>
       </c>
     </row>
@@ -9779,7 +9434,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
@@ -9791,7 +9446,7 @@
         <v>4</v>
       </c>
       <c r="N3">
-        <f xml:space="preserve"> SUM(B3:F3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9821,7 +9476,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -9833,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <f xml:space="preserve"> SUM(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9863,10 +9518,10 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -9878,7 +9533,7 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <f xml:space="preserve"> SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -9908,7 +9563,7 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -9920,7 +9575,7 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <f xml:space="preserve"> SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -9965,7 +9620,7 @@
         <v>4</v>
       </c>
       <c r="N7">
-        <f xml:space="preserve"> SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -9995,7 +9650,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -10007,7 +9662,7 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <f xml:space="preserve"> SUM(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -10037,10 +9692,10 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -10052,7 +9707,7 @@
         <v>4</v>
       </c>
       <c r="N9">
-        <f xml:space="preserve"> SUM(B9:F9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -10082,7 +9737,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -10094,7 +9749,7 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <f xml:space="preserve"> SUM(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10124,7 +9779,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -10136,13 +9791,13 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <f xml:space="preserve"> SUM(B11:F11)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -10166,7 +9821,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
@@ -10178,7 +9833,7 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <f xml:space="preserve"> SUM(B12:F12)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -10208,10 +9863,10 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
@@ -10223,13 +9878,13 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <f xml:space="preserve"> SUM(B13:F13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10253,10 +9908,10 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
         <v>15</v>
@@ -10268,13 +9923,13 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <f xml:space="preserve"> SUM(B14:F14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -10298,10 +9953,10 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
         <v>15</v>
@@ -10313,13 +9968,13 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <f xml:space="preserve"> SUM(B15:F15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -10343,10 +9998,10 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
@@ -10358,7 +10013,7 @@
         <v>4</v>
       </c>
       <c r="N16">
-        <f xml:space="preserve"> SUM(B16:F16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10385,10 +10040,10 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
@@ -10400,13 +10055,13 @@
         <v>4</v>
       </c>
       <c r="N17">
-        <f xml:space="preserve"> SUM(B17:F17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -10430,7 +10085,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
@@ -10442,7 +10097,7 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <f xml:space="preserve"> SUM(B18:F18)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -10487,7 +10142,7 @@
         <v>4</v>
       </c>
       <c r="N19">
-        <f xml:space="preserve"> SUM(B19:F19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10529,7 +10184,7 @@
         <v>4</v>
       </c>
       <c r="N20">
-        <f xml:space="preserve"> SUM(B20:F20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10571,7 +10226,7 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <f xml:space="preserve"> SUM(B21:F21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10610,7 +10265,7 @@
         <v>4</v>
       </c>
       <c r="N22">
-        <f xml:space="preserve"> SUM(B22:F22)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10640,7 +10295,7 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
         <v>15</v>
@@ -10652,7 +10307,7 @@
         <v>4</v>
       </c>
       <c r="N23">
-        <f xml:space="preserve"> SUM(B23:F23)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -10682,7 +10337,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
@@ -10694,7 +10349,7 @@
         <v>4</v>
       </c>
       <c r="N24">
-        <f xml:space="preserve"> SUM(B24:F24)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -10724,7 +10379,7 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
@@ -10736,7 +10391,7 @@
         <v>4</v>
       </c>
       <c r="N25">
-        <f xml:space="preserve"> SUM(B25:F25)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -10766,10 +10421,10 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
@@ -10781,7 +10436,7 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <f xml:space="preserve"> SUM(B26:F26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -10811,10 +10466,10 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27" t="s">
         <v>15</v>
@@ -10826,7 +10481,7 @@
         <v>4</v>
       </c>
       <c r="N27">
-        <f xml:space="preserve"> SUM(B27:F27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -10856,10 +10511,10 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s">
         <v>15</v>
@@ -10871,7 +10526,7 @@
         <v>4</v>
       </c>
       <c r="N28">
-        <f xml:space="preserve"> SUM(B28:F28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10901,10 +10556,10 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K29" t="s">
         <v>15</v>
@@ -10916,7 +10571,7 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <f xml:space="preserve"> SUM(B29:F29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -10946,10 +10601,10 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
         <v>15</v>
@@ -10961,7 +10616,7 @@
         <v>4</v>
       </c>
       <c r="N30">
-        <f xml:space="preserve"> SUM(B30:F30)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -11006,7 +10661,7 @@
         <v>4</v>
       </c>
       <c r="N31">
-        <f xml:space="preserve"> SUM(B31:F31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -11036,10 +10691,10 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K32" t="s">
         <v>15</v>
@@ -11051,7 +10706,7 @@
         <v>4</v>
       </c>
       <c r="N32">
-        <f xml:space="preserve"> SUM(B32:F32)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -11081,10 +10736,10 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K33" t="s">
         <v>15</v>
@@ -11096,7 +10751,7 @@
         <v>4</v>
       </c>
       <c r="N33">
-        <f xml:space="preserve"> SUM(B33:F33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -11126,10 +10781,10 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s">
         <v>7</v>
@@ -11141,7 +10796,7 @@
         <v>4</v>
       </c>
       <c r="N34">
-        <f xml:space="preserve"> SUM(B34:F34)</f>
+        <f t="shared" ref="N34:N56" si="1" xml:space="preserve"> SUM(B34:F34)</f>
         <v>2</v>
       </c>
     </row>
@@ -11171,10 +10826,10 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
@@ -11186,7 +10841,7 @@
         <v>4</v>
       </c>
       <c r="N35">
-        <f xml:space="preserve"> SUM(B35:F35)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11216,10 +10871,10 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K36" t="s">
         <v>15</v>
@@ -11231,7 +10886,7 @@
         <v>4</v>
       </c>
       <c r="N36">
-        <f xml:space="preserve"> SUM(B36:F36)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11258,10 +10913,10 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K37" t="s">
         <v>7</v>
@@ -11273,7 +10928,7 @@
         <v>4</v>
       </c>
       <c r="N37">
-        <f xml:space="preserve"> SUM(B37:F37)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -11303,10 +10958,10 @@
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K38" t="s">
         <v>15</v>
@@ -11318,7 +10973,7 @@
         <v>4</v>
       </c>
       <c r="N38">
-        <f xml:space="preserve"> SUM(B38:F38)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -11348,10 +11003,10 @@
         <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K39" t="s">
         <v>15</v>
@@ -11363,7 +11018,7 @@
         <v>4</v>
       </c>
       <c r="N39">
-        <f xml:space="preserve"> SUM(B39:F39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -11408,7 +11063,7 @@
         <v>4</v>
       </c>
       <c r="N40">
-        <f xml:space="preserve"> SUM(B40:F40)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11438,7 +11093,7 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s">
         <v>15</v>
@@ -11450,7 +11105,7 @@
         <v>4</v>
       </c>
       <c r="N41">
-        <f xml:space="preserve"> SUM(B41:F41)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11480,10 +11135,10 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K42" t="s">
         <v>15</v>
@@ -11495,7 +11150,7 @@
         <v>4</v>
       </c>
       <c r="N42">
-        <f xml:space="preserve"> SUM(B42:F42)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -11525,7 +11180,7 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K43" t="s">
         <v>15</v>
@@ -11537,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="N43">
-        <f xml:space="preserve"> SUM(B43:F43)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -11567,7 +11222,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K44" t="s">
         <v>15</v>
@@ -11579,7 +11234,7 @@
         <v>4</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> SUM(B44:F44)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -11609,7 +11264,7 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K45" t="s">
         <v>15</v>
@@ -11621,7 +11276,7 @@
         <v>4</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> SUM(B45:F45)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -11651,7 +11306,7 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K46" t="s">
         <v>15</v>
@@ -11663,7 +11318,7 @@
         <v>4</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> SUM(B46:F46)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -11693,7 +11348,7 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K47" t="s">
         <v>15</v>
@@ -11705,7 +11360,7 @@
         <v>4</v>
       </c>
       <c r="N47">
-        <f xml:space="preserve"> SUM(B47:F47)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -11735,7 +11390,7 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s">
         <v>15</v>
@@ -11747,7 +11402,7 @@
         <v>4</v>
       </c>
       <c r="N48">
-        <f xml:space="preserve"> SUM(B48:F48)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -11756,41 +11411,41 @@
         <v>91</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
         <v>5</v>
       </c>
-      <c r="H49" t="s">
-        <v>6</v>
-      </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K49" t="s">
         <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M49" t="s">
         <v>4</v>
       </c>
       <c r="N49">
-        <f xml:space="preserve"> SUM(B49:F49)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -11798,28 +11453,28 @@
         <v>92</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s">
         <v>15</v>
@@ -11831,34 +11486,34 @@
         <v>4</v>
       </c>
       <c r="N50">
-        <f xml:space="preserve"> SUM(B50:F50)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>12</v>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
       </c>
       <c r="I51" t="s">
         <v>97</v>
@@ -11873,40 +11528,37 @@
         <v>4</v>
       </c>
       <c r="N51">
-        <f xml:space="preserve"> SUM(B51:F51)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L52" t="s">
         <v>52</v>
@@ -11915,28 +11567,28 @@
         <v>4</v>
       </c>
       <c r="N52">
-        <f xml:space="preserve"> SUM(B52:F52)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
@@ -11945,7 +11597,7 @@
         <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L53" t="s">
         <v>52</v>
@@ -11954,28 +11606,28 @@
         <v>4</v>
       </c>
       <c r="N53">
-        <f xml:space="preserve"> SUM(B53:F53)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -11993,28 +11645,28 @@
         <v>4</v>
       </c>
       <c r="N54">
-        <f xml:space="preserve"> SUM(B54:F54)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -12032,28 +11684,28 @@
         <v>4</v>
       </c>
       <c r="N55">
-        <f xml:space="preserve"> SUM(B55:F55)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
         <v>16</v>
@@ -12071,46 +11723,7 @@
         <v>4</v>
       </c>
       <c r="N56">
-        <f xml:space="preserve"> SUM(B56:F56)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" t="s">
-        <v>52</v>
-      </c>
-      <c r="M57" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57">
-        <f xml:space="preserve"> SUM(B57:F57)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -12118,87 +11731,89 @@
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="I9:J9" name="Range1_3"/>
   </protectedRanges>
-  <conditionalFormatting sqref="L2:M6 L18:M22 I19:K19 G1:K6 G7:M17 G18:K18 A1:F57 G20:K22 N1:N22 G23:N57">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="A1:F56 G23:N56">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:M19 I19:K19 G2:M17 G18:K18 N2:N19 A2:F57 G20:N57">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:N57">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+  <conditionalFormatting sqref="A2:N56">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1 G2:J18 L2:L57 I19:J19 G20:J57">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="B-Chronic illness patient care">
+  <conditionalFormatting sqref="G1:H1 G2:J18 L2:L56 I19:J19 G20:J56">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:H54">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G54)))</formula>
+  <conditionalFormatting sqref="G2:J18 L2:L56 I19:J19 G20:J56 G1:H1">
+    <cfRule type="containsText" dxfId="4" priority="22" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J18 L2:L57 I19:J19 G20:J57 G1:H1">
-    <cfRule type="containsText" dxfId="1" priority="22" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="G1:K6 N1:N22 L2:M6 G7:M17 G18:K18 L18:M22 I19:K19 G20:K22">
+    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:M17 N2:N19 A2:F56 G18:K18 L18:M19 I19:K19 G20:N56">
+    <cfRule type="containsText" dxfId="2" priority="21" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:M17 N2:N19 G18:K18 L18:M19 I19:K19 G20:N56 A2:F56">
+    <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M1">
@@ -12207,11 +11822,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20:H57 G2:H18" xr:uid="{2E87A96B-D38F-40B5-A944-E39CEDAA39D8}">
-      <formula1>$A$72:$A$75</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H18 G20:H56" xr:uid="{2E87A96B-D38F-40B5-A944-E39CEDAA39D8}">
+      <formula1>$A$71:$A$74</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:H19" xr:uid="{4BF336DF-1868-449A-A548-E7E574102A47}">
-      <formula1>$A$77:$A$81</formula1>
+      <formula1>$A$76:$A$80</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HNELHD PGY1 and 2 Allocations Mapping 2024 Automated Algorithm.xlsx
+++ b/HNELHD PGY1 and 2 Allocations Mapping 2024 Automated Algorithm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\GitHub\term-allocations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262FBB7-B1AC-4441-ADBE-6DDA5B420AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062DB7A-6548-4DCC-8D86-6332908EFF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2730" windowWidth="33450" windowHeight="19035" activeTab="2" xr2:uid="{38A017DF-DBEE-4E28-B287-B117EED1A5CF}"/>
+    <workbookView xWindow="3165" yWindow="615" windowWidth="22485" windowHeight="19035" xr2:uid="{38A017DF-DBEE-4E28-B287-B117EED1A5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined sheet" sheetId="1" r:id="rId1"/>
@@ -574,14 +574,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill>
@@ -593,27 +586,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -635,13 +607,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -704,6 +669,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -712,6 +698,97 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -733,6 +810,153 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -858,49 +1082,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
+          <bgColor rgb="FF3886CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,175 +1103,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1145,7 +1159,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1159,42 +1187,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1208,7 +1201,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
+          <bgColor rgb="FF66CCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1531,9 +1524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5489,43 +5482,43 @@
         <v>128</v>
       </c>
       <c r="B76" s="7">
-        <f>SUM(B2:B75)</f>
+        <f t="shared" ref="B76:K76" si="0">SUM(B2:B75)</f>
         <v>86</v>
       </c>
       <c r="C76" s="7">
-        <f>SUM(C2:C75)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="D76" s="7">
-        <f>SUM(D2:D75)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E76" s="7">
-        <f>SUM(E2:E75)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="F76" s="7">
-        <f>SUM(F2:F75)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="G76" s="7">
-        <f>SUM(G2:G75)</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="H76" s="7">
-        <f>SUM(H2:H75)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="I76" s="7">
-        <f>SUM(I2:I75)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="J76" s="7">
-        <f>SUM(J2:J75)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="K76" s="7">
-        <f>SUM(K2:K75)</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
     </row>
@@ -5534,126 +5527,126 @@
     <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="N9:O9" name="Range1"/>
   </protectedRanges>
   <autoFilter ref="A1:R74" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}"/>
-  <conditionalFormatting sqref="B19:P19 A19:A27 Q19:R27 B20:K21 N20:P21 B22:P27 A28:R73 A1:P1 R1 A2:R18">
-    <cfRule type="containsText" dxfId="91" priority="108" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="A1:R1">
+    <cfRule type="containsText" dxfId="90" priority="5" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:P19 Q19:R20 A19:A27 B20:K20 N20:P20 B21:R27 A28:R73 A2:R18">
-    <cfRule type="containsText" dxfId="90" priority="109" operator="containsText" text="D-Peri-operative / procedural patient care">
+  <conditionalFormatting sqref="A2:R18 B19:P19 A19:A27 Q19:R27 B20:K21 N20:P21 B22:P27 A28:R73">
+    <cfRule type="containsText" dxfId="89" priority="108" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:R18 B19:P19 Q19:R20 A19:A27 B20:K20 N20:P20 B21:R27 A28:R73">
+    <cfRule type="containsText" dxfId="88" priority="110" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="110" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="87" priority="109" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:R73">
-    <cfRule type="containsText" dxfId="88" priority="74" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="86" priority="74" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:M1 N20:O21 L22:O73 L2:O19 Q2:Q73">
-    <cfRule type="containsText" dxfId="87" priority="113" operator="containsText" text="B-Chronic illness patient care">
+  <conditionalFormatting sqref="L1:M1 L2:O19 Q2:Q73 N20:O21 L22:O73">
+    <cfRule type="containsText" dxfId="85" priority="114" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="113" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="114" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20">
-    <cfRule type="containsText" dxfId="85" priority="62" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="83" priority="70" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="64" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="75" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="62" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="63" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="73" priority="69" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="64" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="68" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="69" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="70" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="75" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="76" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="79" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="80" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M21">
-    <cfRule type="containsText" dxfId="73" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="71" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="70" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="69" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:M21">
-    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="68" priority="6" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="66" priority="8" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="65" priority="12" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="14" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="62" priority="27" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="61" priority="28" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="60" priority="29" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="30" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="59" priority="30" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L70:M70">
-    <cfRule type="containsText" dxfId="60" priority="106" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="58" priority="106" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20:O21 L22:O73 L1:M1 L2:O19 Q2:Q73">
-    <cfRule type="containsText" dxfId="59" priority="112" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="L2:O19 Q2:Q73 N20:O21 L22:O73 L1:M1">
+    <cfRule type="containsText" dxfId="57" priority="112" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -8690,126 +8683,126 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A17:A25 L17:M25 I18:K19 M1 B17:K17 B18:F19 B20:K25 A1:K1 A2:M16 A26:M70">
-    <cfRule type="containsText" dxfId="57" priority="29" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="A1:M1">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:M18 A17:A25 I18:K18 B17:K17 B18:F18 B19:M25 A2:M16 A26:M70">
-    <cfRule type="containsText" dxfId="56" priority="30" operator="containsText" text="D-Peri-operative / procedural patient care">
+  <conditionalFormatting sqref="A2:M16 B17:K17 A17:A25 L17:M25 B18:F19 I18:K19 B20:K25 A26:M70">
+    <cfRule type="containsText" dxfId="55" priority="29" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:M16 B17:K17 L17:M18 A17:A25 B18:F18 I18:K18 B19:M25 A26:M70">
+    <cfRule type="containsText" dxfId="54" priority="31" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="31" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="53" priority="30" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:M70">
-    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="52" priority="21" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1 I18:J19 G2:J17 G20:J70 L2:L70">
-    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="B-Chronic illness patient care">
+  <conditionalFormatting sqref="G1:H1 G2:J17 L2:L70 I18:J19 G20:J70">
+    <cfRule type="containsText" dxfId="51" priority="34" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="33" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="34" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="49" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H19">
-    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="27" priority="12" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67:H67">
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:J19 G1:H1 G2:J17 G20:J70 L2:L70">
-    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="G2:J17 L2:L70 I18:J19 G20:J70 G1:H1">
+    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -8828,7 +8821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533CA44-7BCF-4D40-AC1C-780ACFD916E3}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N53"/>
     </sheetView>
   </sheetViews>
@@ -11129,15 +11122,12 @@
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="I7:J7" name="Range1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="I17:K17 M1 B17:F17 B16:K16 A1:K1 A16:A17 L16:M17 A18:M53 A2:M15">
-    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="A1:M1">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:M17 I17:K17 B17:F17 B16:K16 A16:A17 A18:M53 A2:M15">
-    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="A2:M15 B16:K16 A16:A17 L16:M17 B17:F17 I17:K17 A18:M53">
     <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
@@ -11146,77 +11136,75 @@
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A2)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1 I17:J17 G18:J53 G2:J16 L2:L53">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="B-Chronic illness patient care">
+  <conditionalFormatting sqref="A18:M53 A2:M15 B16:K16 A16:A17 L16:M17 B17:F17 I17:K17">
+    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1 G2:J16 L2:L53 I17:J17 G18:J53">
+    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="34" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="16" priority="34" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="6" priority="22" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="23" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="25" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="25" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="26" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="3" priority="26" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="27" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="2" priority="27" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="containsText" dxfId="2" priority="28" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="1" priority="28" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:J17 G1:H1 G18:J53 G2:J16 L2:L53">
-    <cfRule type="containsText" dxfId="1" priority="32" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="G2:J16 L2:L53 I17:J17 G18:J53 G1:H1">
+    <cfRule type="containsText" dxfId="0" priority="32" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
